--- a/analysis/data/derived_data/flaking_intensity.xlsx
+++ b/analysis/data/derived_data/flaking_intensity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lithic_Analysis\QSYSpheroidsStudy\analysis\data\derived_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DF58B9-0848-43EF-A152-280AFCA2E4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D857B57-F225-42AD-B8FF-F4C051EA262E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="18408" windowHeight="9768" xr2:uid="{805340FD-2794-4CD7-8C2C-0D4FED3109F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{805340FD-2794-4CD7-8C2C-0D4FED3109F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00000_);[Red]\(0.00000\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +183,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <scheme val="minor"/>
     </font>
@@ -213,19 +218,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -545,527 +550,520 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>36894.470300000001</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>69543.540999999997</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <f t="shared" ref="E2:E22" si="0">C2/D2</f>
         <v>0.53052332063447849</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <f>1-E2</f>
         <v>0.46947667936552151</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>17293.6165</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>26832.318299999999</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <f t="shared" si="0"/>
         <v>0.64450698246226457</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <f t="shared" ref="F3:F22" si="1">1-E3</f>
         <v>0.35549301753773543</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>3343.8690999999999</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>11894.330900000001</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>0.28113133291087433</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <f t="shared" si="1"/>
         <v>0.71886866708912567</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>29</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>299.32049999999998</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>11132.7394</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>2.6886509173115108E-2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <f t="shared" si="1"/>
         <v>0.97311349082688492</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <f>B5/D5</f>
         <v>2.6049293851251021E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>31</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>802.15980000000002</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>10110.682199999999</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>7.9337851208497095E-2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <f t="shared" si="1"/>
         <v>0.92066214879150288</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <f>B6/D6</f>
         <v>3.0660641277005028E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>13037.6625</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>17285.3969</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>0.75425878708055583</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <f t="shared" si="1"/>
         <v>0.24574121291944417</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>6437.7936</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>24694.996299999999</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>0.2606922277611356</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <f t="shared" si="1"/>
         <v>0.73930777223886435</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>14</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>194.41900000000001</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>2653.6514999999999</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>7.3264707140330981E-2</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <f t="shared" si="1"/>
         <v>0.92673529285966905</v>
       </c>
-      <c r="G9" s="1">
-        <f t="shared" ref="G7:G21" si="2">B9/D9</f>
+      <c r="G9">
+        <f t="shared" ref="G9:G21" si="2">B9/D9</f>
         <v>5.2757492835815104E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>4954.8617999999997</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>15552.037399999999</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>0.31859888659989977</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>0.68140111340010023</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <f t="shared" si="2"/>
         <v>5.1440205512880263E-4</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>22</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>8801.2495999999992</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>59099.766000000003</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>0.14892190266878549</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <f t="shared" si="1"/>
         <v>0.85107809733121453</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <f t="shared" si="2"/>
         <v>3.722518969026036E-4</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>26</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>1089.2695000000001</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>14037.892400000001</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>7.75949458053974E-2</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <f t="shared" si="1"/>
         <v>0.92240505419460261</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <f t="shared" si="2"/>
         <v>1.8521298824031448E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>22</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>2427.5052000000001</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>16365.2516</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>0.1483328982244306</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <f t="shared" si="1"/>
         <v>0.85166710177556937</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <f t="shared" si="2"/>
         <v>1.3443117489253878E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>20</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>2740.7945</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>19552.2755</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>0.14017777623888331</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <f t="shared" si="1"/>
         <v>0.85982222376111672</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <f t="shared" si="2"/>
         <v>1.0228988436665595E-3</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>1537.7121999999999</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>18780.136200000001</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>8.1879715015059362E-2</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <f t="shared" si="1"/>
         <v>0.91812028498494058</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <f t="shared" si="2"/>
         <v>1.4376892538191495E-3</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>28</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>555.1354</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>13996.644700000001</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>3.966203414451179E-2</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <f t="shared" si="1"/>
         <v>0.96033796585548825</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <f t="shared" si="2"/>
         <v>2.000479443476907E-3</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>14</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>18904.7899</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>53588.622900000002</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>0.35277618414038403</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <f t="shared" si="1"/>
         <v>0.64722381585961597</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <f t="shared" si="2"/>
         <v>2.6124948249043358E-4</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="5">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="4"/>
+      <c r="C18">
         <v>9657.3053999999993</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>25611.006700000002</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>0.37707636849745541</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <f t="shared" si="1"/>
         <v>0.62292363150254459</v>
       </c>
-      <c r="G18" s="1">
-        <f t="shared" si="2"/>
-        <v>1.5618284930595875E-4</v>
-      </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>10373.771199999999</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>19240.0278</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>0.5391765182376711</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <f t="shared" si="1"/>
         <v>0.4608234817623289</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>3868.9321</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>11632.750400000001</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>0.33258962557986282</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <f t="shared" si="1"/>
         <v>0.66741037442013718</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>15</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>2330.1044999999999</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>10677.1129</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>0.21823357323495193</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
         <f t="shared" si="1"/>
         <v>0.78176642676504804</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21">
         <f t="shared" si="2"/>
         <v>1.4048741584440866E-3</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>3252.1453000000001</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>7114.7042000000001</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>0.45710196918657559</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22">
         <f t="shared" si="1"/>
         <v>0.54289803081342436</v>
       </c>

--- a/analysis/data/derived_data/flaking_intensity.xlsx
+++ b/analysis/data/derived_data/flaking_intensity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lithic_Analysis\QSYSpheroidsStudy\analysis\data\derived_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D857B57-F225-42AD-B8FF-F4C051EA262E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE792870-24BB-460F-9981-BCFB8D118C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{805340FD-2794-4CD7-8C2C-0D4FED3109F1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{805340FD-2794-4CD7-8C2C-0D4FED3109F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00000_);[Red]\(0.00000\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,11 +186,6 @@
       <name val="等线"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,7 +209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -228,9 +223,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,7 +542,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -966,10 +958,12 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4">
+        <v>4</v>
+      </c>
       <c r="C18">
         <v>9657.3053999999993</v>
       </c>
@@ -983,6 +977,10 @@
       <c r="F18">
         <f t="shared" si="1"/>
         <v>0.62292363150254459</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>1.5618284930595875E-4</v>
       </c>
     </row>
     <row r="19" spans="1:7">

--- a/analysis/data/derived_data/flaking_intensity.xlsx
+++ b/analysis/data/derived_data/flaking_intensity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lithic_Analysis\QSYSpheroidsStudy\analysis\data\derived_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE792870-24BB-460F-9981-BCFB8D118C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25852DC-B3AB-4D55-926C-2D1C41609A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{805340FD-2794-4CD7-8C2C-0D4FED3109F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{805340FD-2794-4CD7-8C2C-0D4FED3109F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00000_);[Red]\(0.00000\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +184,8 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -542,10 +544,10 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" customWidth="1"/>
@@ -553,7 +555,7 @@
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -576,26 +578,26 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="C2">
-        <v>36894.470300000001</v>
+        <v>11351.730100000001</v>
       </c>
       <c r="D2">
         <v>69543.540999999997</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E22" si="0">C2/D2</f>
-        <v>0.53052332063447849</v>
+        <v>0.16323198296733266</v>
       </c>
       <c r="F2">
         <f>1-E2</f>
-        <v>0.46947667936552151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.83676801703266734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -614,7 +616,7 @@
         <v>0.35549301753773543</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -633,7 +635,7 @@
         <v>0.71886866708912567</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -659,7 +661,7 @@
         <v>2.6049293851251021E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -685,7 +687,7 @@
         <v>3.0660641277005028E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -704,7 +706,7 @@
         <v>0.24574121291944417</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -723,7 +725,7 @@
         <v>0.73930777223886435</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -749,7 +751,7 @@
         <v>5.2757492835815104E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -775,7 +777,7 @@
         <v>5.1440205512880263E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -801,7 +803,7 @@
         <v>3.722518969026036E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -827,7 +829,7 @@
         <v>1.8521298824031448E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -853,7 +855,7 @@
         <v>1.3443117489253878E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -879,7 +881,7 @@
         <v>1.0228988436665595E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -905,7 +907,7 @@
         <v>1.4376892538191495E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -931,7 +933,7 @@
         <v>2.000479443476907E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -957,7 +959,7 @@
         <v>2.6124948249043358E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -983,7 +985,7 @@
         <v>1.5618284930595875E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1002,7 +1004,7 @@
         <v>0.4608234817623289</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1021,7 +1023,7 @@
         <v>0.66741037442013718</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -1047,7 +1049,7 @@
         <v>1.4048741584440866E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
